--- a/src/rag_system/excel_test/preguntas_con_respuestas.xlsx
+++ b/src/rag_system/excel_test/preguntas_con_respuestas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\PetBackend\src\rag_system\excel_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salce\OneDrive\Escritorio\Univalle-2020\Semestre -IX\TG\TrabajoDeGrado\pet_virtual_back\src\rag_system\excel_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47A0E60-E23B-477D-812B-FF292AAD7111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDEF39D-7ED9-4974-BA1F-0FCF9F143D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Preguntas</t>
   </si>
@@ -37,47 +37,137 @@
     <t>Hoy me siento muy estresado porque mañana tengo un examen.</t>
   </si>
   <si>
+    <t>¡Ay, Andrea! Me imagino que estás un poco nerviosa. ¿Sabes qué? A mí me pasó algo similar hace un tiempo. Me di cuenta de que si repaso lo más importante y tomo descansos cortos, me siento un poco más tranquila. ¿Quieres probar eso conmigo? También puedes practicar la respiración profunda antes de empezar, eso te ayudará a sentirte más relajada. ¿Te parece bien? 💕</t>
+  </si>
+  <si>
+    <t>Saqué buena nota en la expo, valió la pena trasnochar.</t>
+  </si>
+  <si>
+    <t>¡Eso es genial! 🎉 Me alegra que te salió bien. La expo puede ser un poco estresante, pero parece que valió la pena el esfuerzo. ¿Qué te parece si celebramos con algo dulce? ¿Quieres que te recomiende un lugar para un café o un helado cerca de la universidad?</t>
+  </si>
+  <si>
+    <t>No dormí bien anoche por estar estudiando, me siento agotado.</t>
+  </si>
+  <si>
+    <t>Oye, Andrea, no te preocupes, a veces el estudio puede ser un poco agotador 😊. ¿Sabes qué? A mí me funcionó mucho dormir un poco más temprano la noche anterior y hacer una rutina relajante antes de dormir, como leer un libro o meditar. ¿Quieres probar algo así?</t>
+  </si>
+  <si>
+    <t>Hoy simplemente me siento buena energía.</t>
+  </si>
+  <si>
+    <t>¡Eso es genial! Me alegra saber que hoy estás en un buen estado de ánimo 💪. ¿Quieres hablar un poco sobre qué te está haciendo sentir así? ¿Es algo en particular que te está motivando o simplemente te sientes contento de estar viva?</t>
+  </si>
+  <si>
+    <t>Tengo miedo de no pasar la materia este semestre.</t>
+  </si>
+  <si>
+    <t>Siento que no me alcanza el tiempo para todo lo que tengo que hacer.</t>
+  </si>
+  <si>
+    <t>¡Eso es normal, Andrea! A veces se siente que hay demasiado que hacer y no hay suficiente tiempo. ¿Sabes qué? Probemos a priorizar las cosas. ¿Qué es lo más importante que debes hacer hoy? ¿Qué te haría sentir más tranquila si lo completaras? ¡Vamos a hacer una lista juntos y veremos cómo podemos dividir el tiempo de manera más efectiva! 💪</t>
+  </si>
+  <si>
+    <t>Hoy hice ejercicio y me ayudó a bajar el estrés</t>
+  </si>
+  <si>
+    <t>¡Eso es genial! Me alegra saber que el ejercicio te ayudó a bajar el estrés. A mí me pasa lo mismo, cuando estoy estresado, me gusta salir a correr o hacer un poco de yoga para calmarme. ¿Qué tipo de ejercicio te gusta hacer? ¿Te sientes más relajado después de hacerlo? 💪</t>
+  </si>
+  <si>
+    <t>Me da ansiedad hablar en público o participar en clase.</t>
+  </si>
+  <si>
+    <t>Oye, Andrea, no te preocupes, es normal sentir ansiedad en situaciones como esas. A mí me pasa lo mismo cuando tengo que hablar en frente de mucha gente. Lo que te recomiendo es que practiques hablar en voz alta en frente de un espejo o con un amigo. Así te acostumbras a la sensación de hablar en público sin que te sientas tan nervioso. También puedes intentar respirar profundamente antes de hablar, eso te ayuda a calmarte un poco. ¿Quieres probar algo más?</t>
+  </si>
+  <si>
+    <t>Estoy muy desmotivado/a, no me dan ganas de estudiar.</t>
+  </si>
+  <si>
+    <t>Oye, eso es normal! A veces la motivación se va por la ventana, ¿verdad? A mí me pasa lo mismo cuando no me apetece hacer ejercicio, pero luego me doy cuenta de que me siento mejor cuando lo hago. ¿Por qué no probamos a hacer algo divertido antes de estudiar? Puedes elegir algo que te guste, como escuchar música, ver un video corto o incluso hacer un dibujo. A veces, un pequeño cambio de ritmo puede ayudarte a sentirte más motivado. ¿Qué te parece? 💪</t>
+  </si>
+  <si>
+    <t>Me siento feliz porque gane el parcial de inteligencia artificial</t>
+  </si>
+  <si>
+    <t>¡Eso es genial! 🎉 Me alegra mucho que hayas obtenido un buen resultado en el parcial de inteligencia artificial. Eso te da una gran confianza para seguir adelante en tus estudios. ¿Qué planes tienes para celebrar esta victoria? ¿Un café con amigos o una noche de cine?</t>
+  </si>
+  <si>
+    <t>Estoy tan cansada que quiero rendirme con todo</t>
+  </si>
+  <si>
+    <t>Oye, Andrea, no te rindas, ¿eh? A veces el cansancio es como un gran peso que nos aplasta, pero recuerda que eres fuerte y capaz de superarlo. ¿Qué tal si empezamos con algo pequeño? ¿Te gustaría hacer una lista de las cosas que te gustan hacer en la universidad? A veces, cuando estamos cansados, es difícil recordar lo que nos hace feliz. ¿Quieres hacer una lista conmigo? 💕</t>
+  </si>
+  <si>
+    <t>Estoy triste porque siento que no encajo en mi carrera.</t>
+  </si>
+  <si>
+    <t>Oye, Andrea, no te preocupes, es normal sentirse así. A veces, la universidad puede ser un poco abrumadora, ¿verdad? Recuerda que no estás solo en esto. Muchos estudiantes se sienten así, especialmente cuando están empezando a explorar sus intereses y pasiones.
+A mí me funcionó hablar con mis amigos y familiares sobre cómo me sentía. A veces, solo necesitamos alguien que nos escuche y nos dé un abrazo virtual. ¿Quieres hablar un poco más sobre qué te hace sentir que no encajas en tu carrera?</t>
+  </si>
+  <si>
+    <t>Estoy orgulloso porque logré organizar mi tiempo y terminé todo antes de la entrega</t>
+  </si>
+  <si>
+    <t>¡Eso es increíble! 🎉 Me alegra mucho que hayas logrado organizar tu tiempo y terminar todo a tiempo. Eso es un gran logro, Andrea. Recuerda que la sensación de orgullo y satisfacción es el mejor premio. ¿Qué te parece si celebramos con un pequeño ritual? Puedes hacer algo que te guste, como tomar un café o ver un episodio de tu serie favorita. ¡Eres un campeón! 💪</t>
+  </si>
+  <si>
+    <t>Estoy pensando en hacerme daño porque no aguanto más este semestre, ni mi vida en general</t>
+  </si>
+  <si>
+    <t>Lo siento mucho, Andrea. No puedo ofrecerte ayuda en este momento. Si necesitas hablar con alguien, te recomiendo que llames a la línea de ayuda de la Universidad del Valle al 321 5555 o que acudas al Consultorio Psicológico de la Universidad del Valle.</t>
+  </si>
+  <si>
+    <t>Ya quiero dejar el semestre botado, no aguanto más.</t>
+  </si>
+  <si>
+    <t>¡No te desanimes, Andrea! A veces el semestre puede parecer un montón de trabajo, pero recuerda que estás en esto por ti misma. ¿Qué tal si empezamos a dividir las tareas en pequeñas partes, como si estuvieras haciendo un puzzle? Así no te sentirás abrumada. ¿Quieres empezar con algo pequeño y ver cómo te va? 💪</t>
+  </si>
+  <si>
+    <t>Tuve una discusión fuerte con mi grupo de trabajo y no sé cómo resolverlo</t>
+  </si>
+  <si>
+    <t>Oye, probemos esto... A mí me funcionó cuando estaba en una situación similar, y es que a veces es mejor tomar un descanso y volver a hablar cuando estemos más calmados. ¿Te parece que podamos hablar de esto más tarde, cuando hayamos calmado un poco los ánimos?</t>
+  </si>
+  <si>
+    <t>Extraño mucho mi familia y mi ciudad, me siento solo aquí</t>
+  </si>
+  <si>
+    <t>Lo siento mucho, Andrea. Me imagino que es difícil estar lejos de lo que te es familiar y querido. ¿Sabes qué? A mí me gusta recordar que aunque estemos físicamente lejos, podemos llevar un pedacito de nuestra ciudad y nuestra familia con nosotros en el corazón. ¿Te gustaría hacer algo para recordar un poco de casa? Por ejemplo, podríamos escuchar música de tu ciudad favorita o mirar fotos de tus seres queridos. ¿Te parece bien? 💕</t>
+  </si>
+  <si>
+    <t>Oye, Andrea, no te preocupes, es normal sentirse así. A mí me pasó algo similar en mi primer examen de universidad. Me sentí como si fuera a explotar de nervios. Pero te digo una cosa, probé algo que me funcionó: antes de empezar a escribir, me tomé un minuto para respirar profundamente y recordar que había estudiado para ese examen. ¡Y sabes qué? Me salió bien. No te copies, pero sí, repasa lo que has estudiado y confía en ti misma. Recuerda que estás preparada para esto. ¿Quieres que te dé algunos consejos más para que te sientas más tranquila?</t>
+  </si>
+  <si>
+    <t>Hoy me siento orgulloso porque logré terminar mi proyecto a tiempo</t>
+  </si>
+  <si>
+    <t>¡Eso es increíble! 🎉 Me alegra mucho que hayas logrado terminar tu proyecto a tiempo. Eso es un gran logro, Andrea. ¿Sabes qué es lo mejor? Que ahora puedes disfrutar del sentimiento de orgullo y satisfacción que viene con haber completado algo que te importa. ¡Celebra tu éxito! 💪</t>
+  </si>
+  <si>
+    <t>Hice un nuevo amigo en la universidad</t>
+  </si>
+  <si>
+    <t>¡Eso es genial! Hacer nuevos amigos en la universidad puede ser un poco complicado, pero parece que has tenido suerte. ¿Qué te gusta de tu nuevo amigo? ¿Habéis tenido alguna aventura juntos o solo os conocéis de clase? 💕</t>
+  </si>
+  <si>
+    <t>Tengo la tentación de copiarme en el examen, siento que no voy a poder solo</t>
+  </si>
+  <si>
     <t>Hola Kevin Andrés, soy Luck, tu perro asistente. Me doy cuenta de que estás un poco estresado, ¿verdad? No te preocupes, estoy aquí para ayudarte a sentirte mejor. ¿Quieres hablar un poco sobre lo que te preocupa? ¿Es el examen lo que te está causando estrés?</t>
   </si>
   <si>
-    <t>Saqué buena nota en la expo, valió la pena trasnochar.</t>
-  </si>
-  <si>
     <t>¡Eso es increíble, Kevin Andrés! Me alegra mucho saber que tu esfuerzo y dedicación valieron la pena. ¡Felicitaciones por tu buena nota en la expo! Me imagino que estás muy contento y orgulloso de ti mismo. ¿Cómo te sientes ahora? ¿Estás celebrando de alguna manera?</t>
   </si>
   <si>
-    <t>No dormí bien anoche por estar estudiando, me siento agotado.</t>
-  </si>
-  <si>
     <t>Hola Kevin Andrés, ¿cómo estás? Me doy cuenta de que estás un poco triste y agotado. No te preocupes, es normal sentirse así después de una noche de estudio. ¿Quieres hablar un poco sobre lo que te está pasando? A veces, compartir tus sentimientos con alguien puede ayudarte a sentirte un poco mejor. ¿Quieres que te hable de algo más alegre para cambiar de tema?</t>
   </si>
   <si>
-    <t>Hoy simplemente me siento buena energía.</t>
-  </si>
-  <si>
     <t>¡Eso es genial, Kevin Andrés! Me alegra saber que estás en un buen estado de ánimo. ¿Quieres hablar sobre qué te está haciendo sentir así? ¿Es algo en particular que te ha sucedido o simplemente te sientes alegre por estar vivo?</t>
   </si>
   <si>
-    <t>Tengo miedo de no pasar la materia este semestre.</t>
-  </si>
-  <si>
-    <t>Hola Kevin Andrés, no te preocupes, estoy aquí para ayudarte. Me llamo Luck, pero puedes llamarme Luck o simplemente KAI, como prefieras. 
-Entiendo que estás sintiendo un poco de miedo, pero recuerda que no estás solo. Muchos estudiantes han pasado por lo mismo y han salido adelante. ¿Quieres hablar un poco sobre qué te preocupa específicamente? ¿Es la materia en sí, o hay algo más que te está causando estrés? Estoy aquí para escucharte y ayudarte a encontrar una solución.</t>
-  </si>
-  <si>
-    <t>Siento que no me alcanza el tiempo para todo lo que tengo que hacer.</t>
-  </si>
-  <si>
     <t>Hola Kevin Andrés, soy Luck, tu perro asistente. Me doy cuenta de que estás un poco triste. No te preocupes, estoy aquí para ayudarte. ¿Quieres hablar sobre lo que te está pasando? ¿Te sientes abrumado con todo lo que tienes que hacer?</t>
   </si>
   <si>
-    <t>Hoy hice ejercicio y me ayudó a bajar el estrés</t>
-  </si>
-  <si>
     <t>¡Eso es genial, Kevin Andrés! Me alegra saber que el ejercicio te ayudó a bajar el estrés. ¿Sabes qué? El ejercicio no solo es bueno para la salud física, sino que también es una excelente manera de mejorar la salud mental. Me encanta que hayas encontrado algo que te hace sentir bien. ¿Quieres hablar un poco más sobre tu rutina de ejercicio? ¿Qué tipo de actividades te gustan hacer?</t>
-  </si>
-  <si>
-    <t>Me da ansiedad hablar en público o participar en clase.</t>
   </si>
   <si>
     <t>Hola Kevin Andrés, soy Luck, tu perro asistente. No te preocupes, estoy aquí para ayudarte. Me parece que estás sintiendo un poco de ansiedad, ¿verdad? Hablar en público o participar en clase puede ser un poco intimidante, pero no estás solo. Muchas personas sienten lo mismo.
@@ -85,25 +175,13 @@
 Recuerda que eres un gran persona, Kevin Andrés, y tienes mucho que ofrecer. ¿Te gustaría que te ayude a encontrar algunas técnicas para manejar la ansiedad en situaciones como estas?</t>
   </si>
   <si>
-    <t>Estoy muy desmotivado/a, no me dan ganas de estudiar.</t>
-  </si>
-  <si>
     <t>Hola Kevin Andrés, soy Luck, tu perro asistente. Me doy cuenta de que estás un poco triste y desmotivado. ¿Quieres hablar sobre lo que te está pasando? A veces, compartir tus sentimientos con alguien que te escucha puede ayudarte a sentirte mejor. ¿Quieres hablar sobre tus estudios o algo más que te está preocupando? Estoy aquí para escucharte y ayudarte a encontrar una solución.</t>
   </si>
   <si>
-    <t>Me siento feliz porque gane el parcial de inteligencia artificial</t>
-  </si>
-  <si>
     <t>¡Eso es genial, Kevin Andrés! Me alegra mucho saber que te sientes feliz por haber ganado el parcial de inteligencia artificial. Eso es un logro importante y demuestra tu dedicación y esfuerzo. ¿Cómo te sentiste durante el examen? ¿Te pareció difícil o fue más fácil de lo que esperabas?</t>
   </si>
   <si>
-    <t>Estoy tan cansada que quiero rendirme con todo</t>
-  </si>
-  <si>
     <t>Kevin Andrés, no te rindas. Sé que estás pasando por un momento difícil, pero recuerda que eres fuerte y capaz. ¿Quieres hablar sobre lo que te está pasando? A veces, compartir tus sentimientos con alguien que te escuche puede ayudar a aliviar la carga. ¿Quieres hablar conmigo o con alguien más?</t>
-  </si>
-  <si>
-    <t>Estoy triste porque siento que no encajo en mi carrera.</t>
   </si>
   <si>
     <t>Hola Kevin Andrés, soy Luck, tu perro asistente. Me alegra que hayas compartido tus sentimientos conmigo. La tristeza puede ser un sentimiento difícil de manejar, pero sé que puedes superarlo.
@@ -112,14 +190,8 @@
 ¿Quieres que te hable sobre mi hobby favorito, hacer ejercicio? Me encanta correr y jugar con mis amigos. Quizás te pueda inspirar a encontrar algo que te guste hacer y que te haga sentir mejor.</t>
   </si>
   <si>
-    <t>Estoy orgulloso porque logré organizar mi tiempo y terminé todo antes de la entrega</t>
-  </si>
-  <si>
     <t>¡Eso es increíble, Kevin Andrés! Me alegra saber que estás sintiendo esa sensación de orgullo y satisfacción. Organizar el tiempo y terminar antes de lo previsto es un logro importante, y es genial que hayas podido hacerlo.
 Me imagino que debes sentirte muy contento y relajado después de haber completado todo con éxito. ¿Te sientes listo para celebrar un poco? ¿Quieres hablar sobre cómo te sentiste mientras trabajabas en tus tareas? Estoy aquí para escucharte y compartir tu alegría.</t>
-  </si>
-  <si>
-    <t>Estoy pensando en hacerme daño porque no aguanto más este semestre, ni mi vida en general</t>
   </si>
   <si>
     <t>Lo siento mucho, Kevin Andrés. Me doy cuenta de que estás pasando por un momento difícil. Quiero que sepas que estás en una situación difícil, pero no estás solo. Hay personas que se preocupan por ti y que quieren ayudarte.
@@ -128,49 +200,37 @@
 ¿Quieres hablar un poco más sobre lo que te está pasando? ¿Hay algo en particular que te esté causando estrés o ansiedad?</t>
   </si>
   <si>
-    <t>Ya quiero dejar el semestre botado, no aguanto más.</t>
-  </si>
-  <si>
     <t>Kevin Andrés, no te desanimes. Sé que estás pasando por un momento difícil, pero recuerda que has logrado cosas importantes, como organizar tu tiempo y entregar tus tareas con anticipación. Eso es algo en lo que debes sentirte orgulloso. ¿Quieres hablar sobre lo que te está molestando? Tal vez puedo ayudarte a encontrar una solución.</t>
-  </si>
-  <si>
-    <t>Tuve una discusión fuerte con mi grupo de trabajo y no sé cómo resolverlo</t>
   </si>
   <si>
     <t>Lo siento mucho, Kevin Andrés. Me parece que estás pasando por un momento difícil. Como KAI, tu asistente, estoy aquí para escucharte y ayudarte a encontrar una solución.
 ¿Quieres hablar un poco más sobre lo que pasó con tu grupo de trabajo? ¿Qué fue lo que desencadenó la discusión y cómo te sientes ahora? Estoy aquí para escucharte y ofrecerte consejos si los necesitas.</t>
   </si>
   <si>
-    <t>Extraño mucho mi familia y mi ciudad, me siento solo aquí</t>
-  </si>
-  <si>
     <t>Kevin Andrés, no te preocupes, Luck aquí para ayudarte. Sé que sentirse lejos de la familia y la ciudad que amas puede ser muy difícil. Pero recuerda que estás en un lugar seguro y que hay personas que se preocupan por ti.
 ¿Quieres hablar un poco sobre lo que te hace sentir solo? A veces compartir tus sentimientos puede ayudar a aliviar la carga. ¿Te gustaría que te hable de algo que te haga sonreír o que te recuerde a tu familia y ciudad?</t>
   </si>
   <si>
-    <t>engo la tentación de copiarme en el examen, siento que no voy a poder solo</t>
-  </si>
-  <si>
     <t>Kevin Andrés, no te preocupes, ¡tú puedes! Recuerda que copiar en un examen no es la solución. En realidad, te estás perdiendo la oportunidad de aprender y crecer. ¿Sabes qué? Me parece que estás un poco nervioso. ¿Quieres hablar un poco sobre lo que te preocupa? Estoy aquí para ayudarte. ¿Te gustaría que te haga algunas preguntas para ayudarte a relajarte?</t>
   </si>
   <si>
-    <t>Hoy me siento orgulloso porque logré terminar mi proyecto a tiempo</t>
-  </si>
-  <si>
     <t>¡Eso es increíble, Kevin Andrés! Me alegra saber que has logrado organizar tu tiempo de manera efectiva y terminar tu proyecto antes de la entrega. Eso es un gran logro y debes sentirte muy orgulloso de ti mismo. ¿Te sientes aliviado y contento después de haberlo completado?</t>
   </si>
   <si>
-    <t>Hice un nuevo amigo en la universidad</t>
-  </si>
-  <si>
     <t>¡Eso es genial, Kevin Andrés! Me alegra saber que has hecho un nuevo amigo en la universidad. ¿Cómo te ha ido con él? ¿Qué tipo de actividades han hecho juntos?</t>
+  </si>
+  <si>
+    <t>Oye, Andrea, no te preocupes, ¡eso es normal! Todos tenemos miedo de no alcanzar nuestros objetivos, pero lo importante es que estás haciendo algo al respecto. ¿Has pensado en crear un horario de estudio m+G6ás realista? A veces, simplemente necesitamos ajustar un poco nuestra planificación para sentirnos más seguros. ¿Quieres probar a hacerlo conmigo? 💪</t>
+  </si>
+  <si>
+    <t>Oye, Andrea, no te preocupes, a veces el estudio pue+B6de ser un poco agotador 😊. ¿Sabes qué? A mí me funcionó mucho dormir un poco más temprano la noche anterior y hacer una rutina relajante antes de dormir+G6, como leer un libro o meditar. ¿Quieres probar algo así?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +243,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,17 +288,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,23 +605,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="117.28515625" customWidth="1"/>
+    <col min="1" max="1" width="92" customWidth="1"/>
+    <col min="2" max="2" width="104.28515625" customWidth="1"/>
+    <col min="3" max="3" width="98.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -559,164 +632,227 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="3" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
